--- a/3. Comparativa de los Ejercicios 1 y 2/Comparativa2C.xlsx
+++ b/3. Comparativa de los Ejercicios 1 y 2/Comparativa2C.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier\Desktop\Universidad\5º Año\2º Cuatrimestre\Teoría avanzada de la computación\Práctica\Práctica 2\3. Comparativa de los Ejercicios 1 y 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1431EB83-8612-43AB-9814-9CA523CE472E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2D6411-6441-4E1B-A2E6-D9ACACEAFEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2F9F779F-0B5B-4B52-81CD-964E4560136B}"/>
   </bookViews>
@@ -1532,7 +1532,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A09BB4A-54DC-429E-B086-C294D4F51FFD}">
   <dimension ref="B2:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <selection activeCell="V12" sqref="V12"/>
     </sheetView>
   </sheetViews>

--- a/3. Comparativa de los Ejercicios 1 y 2/Comparativa2C.xlsx
+++ b/3. Comparativa de los Ejercicios 1 y 2/Comparativa2C.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier\Desktop\Universidad\5º Año\2º Cuatrimestre\Teoría avanzada de la computación\Práctica\Práctica 2\3. Comparativa de los Ejercicios 1 y 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34630\OneDrive\Escritorio\Universidad\4º\2º Cuatrimestre\TAC\P2MT\Practica_MT_TAC\3. Comparativa de los Ejercicios 1 y 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D2D6411-6441-4E1B-A2E6-D9ACACEAFEE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA9C580-F064-41C2-A8F7-D33D2D90AD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2F9F779F-0B5B-4B52-81CD-964E4560136B}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2F9F779F-0B5B-4B52-81CD-964E4560136B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -222,8 +222,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="8.1344925634295712E-2"/>
-          <c:y val="0.17171296296296298"/>
+          <c:x val="9.3367777774972793E-2"/>
+          <c:y val="0.12301317964115484"/>
           <c:w val="0.88254396325459317"/>
           <c:h val="0.6714577865266842"/>
         </c:manualLayout>
@@ -466,6 +466,59 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>tamaño</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -529,6 +582,59 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="lt1">
+                        <a:lumMod val="85000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="es-ES"/>
+                  <a:t>pasos</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="1" i="0" u="none" strike="noStrike" kern="1200" cap="all" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="lt1">
+                      <a:lumMod val="85000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="es-ES"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -573,6 +679,16 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.41666340587850681"/>
+          <c:y val="0.92042748513120221"/>
+          <c:w val="0.2147645542649847"/>
+          <c:h val="5.8701143323872738E-2"/>
+        </c:manualLayout>
+      </c:layout>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1202,10 +1318,10 @@
       <xdr:rowOff>14286</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>761999</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>7620</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>7620</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1532,16 +1648,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A09BB4A-54DC-429E-B086-C294D4F51FFD}">
   <dimension ref="B2:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="V12" sqref="V12"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1569,7 +1685,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1639,7 +1755,7 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1709,7 +1825,7 @@
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1779,7 +1895,7 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1807,7 +1923,7 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>

--- a/3. Comparativa de los Ejercicios 1 y 2/Comparativa2C.xlsx
+++ b/3. Comparativa de los Ejercicios 1 y 2/Comparativa2C.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\34630\OneDrive\Escritorio\Universidad\4º\2º Cuatrimestre\TAC\P2MT\Practica_MT_TAC\3. Comparativa de los Ejercicios 1 y 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Javier\Desktop\Universidad\5º Año\2º Cuatrimestre\Teoría avanzada de la computación\Práctica\Práctica 2\3. Comparativa de los Ejercicios 1 y 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DA9C580-F064-41C2-A8F7-D33D2D90AD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CE91198-F55B-495E-8FB0-D0790B4770AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2F9F779F-0B5B-4B52-81CD-964E4560136B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{2F9F779F-0B5B-4B52-81CD-964E4560136B}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -1652,12 +1652,12 @@
       <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="10" max="10" width="11.88671875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -1685,7 +1685,7 @@
       <c r="Z2" s="2"/>
       <c r="AA2" s="2"/>
     </row>
-    <row r="3" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
@@ -1755,7 +1755,7 @@
       <c r="Z3" s="2"/>
       <c r="AA3" s="2"/>
     </row>
-    <row r="4" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
@@ -1825,7 +1825,7 @@
       <c r="Z4" s="2"/>
       <c r="AA4" s="2"/>
     </row>
-    <row r="5" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B5" s="1" t="s">
         <v>2</v>
       </c>
@@ -1895,7 +1895,7 @@
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
     </row>
-    <row r="6" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B6" s="2"/>
       <c r="C6" s="2"/>
       <c r="D6" s="2"/>
@@ -1923,7 +1923,7 @@
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
     </row>
-    <row r="7" spans="2:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:27" x14ac:dyDescent="0.25">
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
